--- a/PracMaze_3/2d_maze.xlsx
+++ b/PracMaze_3/2d_maze.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\cpp2024\PracMaze_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A00A4298-D1DE-4961-A072-FEE1AE53FFF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ED4081-3ACF-4055-B658-AF9B07E63BF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2d_maze" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -976,11 +976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
